--- a/Daily/Forecast/Stationaritiy/Square Percentage Return/sony.xlsx
+++ b/Daily/Forecast/Stationaritiy/Square Percentage Return/sony.xlsx
@@ -417,13 +417,13 @@
         <v>2583</v>
       </c>
       <c r="C2">
-        <v>-0.0438342445604458</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-69.52006242871744</v>
+        <v>-69.47633180557537</v>
       </c>
       <c r="E2">
-        <v>69.43239393959655</v>
+        <v>69.47633180557537</v>
       </c>
       <c r="F2">
         <v>-13.19502352756388</v>
@@ -437,13 +437,13 @@
         <v>2584</v>
       </c>
       <c r="C3">
-        <v>-0.02403375675568302</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-69.48866753835068</v>
+        <v>-69.46475010703449</v>
       </c>
       <c r="E3">
-        <v>69.44060002483931</v>
+        <v>69.46475010703449</v>
       </c>
       <c r="F3">
         <v>9.037002892767987</v>
@@ -457,13 +457,13 @@
         <v>2585</v>
       </c>
       <c r="C4">
-        <v>0.01618015615746451</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-69.43589458569701</v>
+        <v>-69.45218643560062</v>
       </c>
       <c r="E4">
-        <v>69.46825489801193</v>
+        <v>69.45218643560062</v>
       </c>
       <c r="F4">
         <v>-37.08641145105389</v>
@@ -477,13 +477,13 @@
         <v>2586</v>
       </c>
       <c r="C5">
-        <v>-0.06251033108747872</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-69.51587855871297</v>
+        <v>-69.45346740708433</v>
       </c>
       <c r="E5">
-        <v>69.39085789653801</v>
+        <v>69.45346740708433</v>
       </c>
       <c r="F5">
         <v>-24.13656449806467</v>
@@ -497,13 +497,13 @@
         <v>2587</v>
       </c>
       <c r="C6">
-        <v>-0.04720273717106391</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-69.4933401456292</v>
+        <v>-69.44627139575006</v>
       </c>
       <c r="E6">
-        <v>69.39893467128708</v>
+        <v>69.44627139575006</v>
       </c>
       <c r="F6">
         <v>-37.45404107006323</v>
@@ -517,13 +517,13 @@
         <v>2588</v>
       </c>
       <c r="C7">
-        <v>-0.08361079430481669</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-69.53128307553537</v>
+        <v>-69.44784663361418</v>
       </c>
       <c r="E7">
-        <v>69.36406148692573</v>
+        <v>69.44784663361418</v>
       </c>
       <c r="F7">
         <v>-7.279191413378783</v>
@@ -537,13 +537,13 @@
         <v>2589</v>
       </c>
       <c r="C8">
-        <v>-0.01676067533648964</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-69.45157258819921</v>
+        <v>-69.4349994003321</v>
       </c>
       <c r="E8">
-        <v>69.41805123752624</v>
+        <v>69.4349994003321</v>
       </c>
       <c r="F8">
         <v>-23.46301334614935</v>
@@ -557,13 +557,13 @@
         <v>2590</v>
       </c>
       <c r="C9">
-        <v>-0.05553529818994177</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-69.48281384382948</v>
+        <v>-69.42747447396164</v>
       </c>
       <c r="E9">
-        <v>69.3717432474496</v>
+        <v>69.42747447396164</v>
       </c>
       <c r="F9">
         <v>48.11091922674109</v>
@@ -577,13 +577,13 @@
         <v>2591</v>
       </c>
       <c r="C10">
-        <v>0.09735752767821057</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-69.34129089103499</v>
+        <v>-69.43879130976238</v>
       </c>
       <c r="E10">
-        <v>69.53600594639141</v>
+        <v>69.43879130976238</v>
       </c>
       <c r="F10">
         <v>-15.91587267523948</v>
@@ -597,13 +597,13 @@
         <v>2592</v>
       </c>
       <c r="C11">
-        <v>-0.02851952283771478</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-69.45650694066964</v>
+        <v>-69.42809903059771</v>
       </c>
       <c r="E11">
-        <v>69.39946789499422</v>
+        <v>69.42809903059771</v>
       </c>
       <c r="F11">
         <v>-12.38103140715054</v>
@@ -617,13 +617,13 @@
         <v>2593</v>
       </c>
       <c r="C12">
-        <v>-0.02284660260874348</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-69.43907332112992</v>
+        <v>-69.41634596283386</v>
       </c>
       <c r="E12">
-        <v>69.39338011591245</v>
+        <v>69.41634596283386</v>
       </c>
       <c r="F12">
         <v>52.66160727455826</v>
@@ -637,13 +637,13 @@
         <v>2594</v>
       </c>
       <c r="C13">
-        <v>0.08683747960057109</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-69.34561429591346</v>
+        <v>-69.43254665472807</v>
       </c>
       <c r="E13">
-        <v>69.51928925511461</v>
+        <v>69.43254665472807</v>
       </c>
       <c r="F13">
         <v>-19.32551551424098</v>
@@ -657,13 +657,13 @@
         <v>2595</v>
       </c>
       <c r="C14">
-        <v>-0.02587560949827444</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-69.44896257268668</v>
+        <v>-69.42314935261273</v>
       </c>
       <c r="E14">
-        <v>69.39721135369014</v>
+        <v>69.42314935261273</v>
       </c>
       <c r="F14">
         <v>16.47355652128653</v>
@@ -677,13 +677,13 @@
         <v>2596</v>
       </c>
       <c r="C15">
-        <v>0.02042381476040384</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>-69.39219228789955</v>
+        <v>-69.41266971526638</v>
       </c>
       <c r="E15">
-        <v>69.43303991742036</v>
+        <v>69.41266971526638</v>
       </c>
       <c r="F15">
         <v>-23.67606706536662</v>
@@ -697,13 +697,13 @@
         <v>2597</v>
       </c>
       <c r="C16">
-        <v>-0.02651997450365613</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>-69.43175447562098</v>
+        <v>-69.40527828466688</v>
       </c>
       <c r="E16">
-        <v>69.37871452661366</v>
+        <v>69.40527828466688</v>
       </c>
       <c r="F16">
         <v>-20.2981979722864</v>
@@ -717,13 +717,13 @@
         <v>2598</v>
       </c>
       <c r="C17">
-        <v>-0.02568214619974848</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-69.42193542149806</v>
+        <v>-69.39630926015268</v>
       </c>
       <c r="E17">
-        <v>69.37057112909858</v>
+        <v>69.39630926015268</v>
       </c>
       <c r="F17">
         <v>-25.64939838830185</v>
@@ -737,13 +737,13 @@
         <v>2599</v>
       </c>
       <c r="C18">
-        <v>-0.03651774680790969</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-69.42641165043887</v>
+        <v>-69.38996477397964</v>
       </c>
       <c r="E18">
-        <v>69.35337615682303</v>
+        <v>69.38996477397964</v>
       </c>
       <c r="F18">
         <v>-22.98067016884318</v>
@@ -757,13 +757,13 @@
         <v>2600</v>
       </c>
       <c r="C19">
-        <v>-0.03682130282293737</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>-69.41897419574489</v>
+        <v>-69.38224272449176</v>
       </c>
       <c r="E19">
-        <v>69.34533159009901</v>
+        <v>69.38224272449176</v>
       </c>
       <c r="F19">
         <v>-33.81021021698274</v>
@@ -777,13 +777,13 @@
         <v>2601</v>
       </c>
       <c r="C20">
-        <v>-0.06216360799264581</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>-69.44311763659276</v>
+        <v>-69.38107226503018</v>
       </c>
       <c r="E20">
-        <v>69.31879042060747</v>
+        <v>69.38107226503018</v>
       </c>
       <c r="F20">
         <v>83.1685725655035</v>
@@ -797,13 +797,13 @@
         <v>2602</v>
       </c>
       <c r="C21">
-        <v>0.08179551682974423</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>-69.3594803149101</v>
+        <v>-69.44130954089017</v>
       </c>
       <c r="E21">
-        <v>69.52307134856959</v>
+        <v>69.44130954089017</v>
       </c>
       <c r="F21">
         <v>-20.48750975554015</v>
@@ -817,13 +817,13 @@
         <v>2603</v>
       </c>
       <c r="C22">
-        <v>-0.009500124589852901</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-69.4419232552971</v>
+        <v>-69.43243061078407</v>
       </c>
       <c r="E22">
-        <v>69.4229230061174</v>
+        <v>69.43243061078407</v>
       </c>
       <c r="F22">
         <v>47.97883206092592</v>
@@ -837,13 +837,13 @@
         <v>2604</v>
       </c>
       <c r="C23">
-        <v>0.01024051418895782</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>-69.43331206143559</v>
+        <v>-69.44355342979075</v>
       </c>
       <c r="E23">
-        <v>69.45379308981352</v>
+        <v>69.44355342979075</v>
       </c>
       <c r="F23">
         <v>7.891945768375308</v>
@@ -857,13 +857,13 @@
         <v>2605</v>
       </c>
       <c r="C24">
-        <v>0.002313672143341571</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-69.42856831946187</v>
+        <v>-69.4308846956816</v>
       </c>
       <c r="E24">
-        <v>69.43319566374856</v>
+        <v>69.4308846956816</v>
       </c>
       <c r="F24">
         <v>-25.93816126412349</v>
@@ -877,13 +877,13 @@
         <v>2606</v>
       </c>
       <c r="C25">
-        <v>-0.00593333338602966</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-69.43063699444399</v>
+        <v>-69.42470529211003</v>
       </c>
       <c r="E25">
-        <v>69.41877032767194</v>
+        <v>69.42470529211003</v>
       </c>
       <c r="F25">
         <v>5.791518571534482</v>
@@ -897,13 +897,13 @@
         <v>2607</v>
       </c>
       <c r="C26">
-        <v>0.001265539693186611</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>-69.41047851088572</v>
+        <v>-69.41174499458802</v>
       </c>
       <c r="E26">
-        <v>69.41300959027211</v>
+        <v>69.41174499458802</v>
       </c>
       <c r="F26">
         <v>21.5783934682392</v>
@@ -917,13 +917,13 @@
         <v>2608</v>
       </c>
       <c r="C27">
-        <v>0.005666272972871299</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>-69.39770992600322</v>
+        <v>-69.40337762516539</v>
       </c>
       <c r="E27">
-        <v>69.40904247194896</v>
+        <v>69.40337762516539</v>
       </c>
       <c r="F27">
         <v>-15.80265422403357</v>
@@ -937,13 +937,13 @@
         <v>2609</v>
       </c>
       <c r="C28">
-        <v>-0.001683807977339136</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>-69.39440850215929</v>
+        <v>-69.39272507938364</v>
       </c>
       <c r="E28">
-        <v>69.39104088620461</v>
+        <v>69.39272507938364</v>
       </c>
       <c r="F28">
         <v>0.7208624216858084</v>
@@ -957,13 +957,13 @@
         <v>2610</v>
       </c>
       <c r="C29">
-        <v>7.449113775878421E-05</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>-69.37936084112964</v>
+        <v>-69.3794356923917</v>
       </c>
       <c r="E29">
-        <v>69.37950982340514</v>
+        <v>69.3794356923917</v>
       </c>
       <c r="F29">
         <v>7.195179878767988</v>
@@ -977,13 +977,13 @@
         <v>2611</v>
       </c>
       <c r="C30">
-        <v>0.0007534418489871717</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>-69.36594366433506</v>
+        <v>-69.3666974775157</v>
       </c>
       <c r="E30">
-        <v>69.36745054803303</v>
+        <v>69.3666974775157</v>
       </c>
       <c r="F30">
         <v>-24.56389434598094</v>
@@ -997,13 +997,13 @@
         <v>2612</v>
       </c>
       <c r="C31">
-        <v>-0.001350813904800977</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>-69.3611660485566</v>
+        <v>-69.35981531900455</v>
       </c>
       <c r="E31">
-        <v>69.35846442074698</v>
+        <v>69.35981531900455</v>
       </c>
       <c r="F31">
         <v>39.59480768550492</v>
@@ -1017,13 +1017,13 @@
         <v>2613</v>
       </c>
       <c r="C32">
-        <v>-0.00869192107372877</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>-69.37184843224129</v>
+        <v>-69.36315859125428</v>
       </c>
       <c r="E32">
-        <v>69.35446459009383</v>
+        <v>69.36315859125428</v>
       </c>
       <c r="F32">
         <v>23.40709165083439</v>
@@ -1037,13 +1037,13 @@
         <v>2614</v>
       </c>
       <c r="C33">
-        <v>0.001021947099085342</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>-69.35467277618623</v>
+        <v>-69.35569476506666</v>
       </c>
       <c r="E33">
-        <v>69.35671667038442</v>
+        <v>69.35569476506666</v>
       </c>
       <c r="F33">
         <v>-34.84954683831774</v>
@@ -1057,13 +1057,13 @@
         <v>2615</v>
       </c>
       <c r="C34">
-        <v>0.006507466932498807</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>-69.34878704456993</v>
+        <v>-69.3552960541783</v>
       </c>
       <c r="E34">
-        <v>69.36180197843494</v>
+        <v>69.3552960541783</v>
       </c>
       <c r="F34">
         <v>-43.4676562279293</v>
@@ -1077,13 +1077,13 @@
         <v>2616</v>
       </c>
       <c r="C35">
-        <v>-0.01133845442481471</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>-69.37337915930257</v>
+        <v>-69.36204284061687</v>
       </c>
       <c r="E35">
-        <v>69.35070225045294</v>
+        <v>69.36204284061687</v>
       </c>
       <c r="F35">
         <v>-1.464393792561225</v>
@@ -1097,13 +1097,13 @@
         <v>2617</v>
       </c>
       <c r="C36">
-        <v>-0.0004089074319896658</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>-69.34921849222231</v>
+        <v>-69.34881206535314</v>
       </c>
       <c r="E36">
-        <v>69.34840067735833</v>
+        <v>69.34881206535314</v>
       </c>
       <c r="F36">
         <v>-1.465407457438062</v>
@@ -1117,13 +1117,13 @@
         <v>2618</v>
       </c>
       <c r="C37">
-        <v>-0.0004116201009199194</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>-69.33599803516509</v>
+        <v>-69.33558890722523</v>
       </c>
       <c r="E37">
-        <v>69.33517479496325</v>
+        <v>69.33558890722523</v>
       </c>
       <c r="F37">
         <v>8.777269207774907</v>
@@ -1137,13 +1137,13 @@
         <v>2619</v>
       </c>
       <c r="C38">
-        <v>0.002431018264332351</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>-69.32073223095699</v>
+        <v>-69.32316566864253</v>
       </c>
       <c r="E38">
-        <v>69.32559426748566</v>
+        <v>69.32316566864253</v>
       </c>
       <c r="F38">
         <v>1.459347516876619</v>
@@ -1157,13 +1157,13 @@
         <v>2620</v>
       </c>
       <c r="C39">
-        <v>0.0004096860865176204</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>-69.30954514435217</v>
+        <v>-69.30995732123318</v>
       </c>
       <c r="E39">
-        <v>69.3103645165252</v>
+        <v>69.30995732123318</v>
       </c>
       <c r="F39">
         <v>-62.17618899969324</v>
@@ -1177,13 +1177,13 @@
         <v>2621</v>
       </c>
       <c r="C40">
-        <v>-0.01571018752052659</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>-69.35331388099459</v>
+        <v>-69.33760569646358</v>
       </c>
       <c r="E40">
-        <v>69.32189350595354</v>
+        <v>69.33760569646358</v>
       </c>
       <c r="F40">
         <v>-59.42178629504866</v>
@@ -1197,13 +1197,13 @@
         <v>2622</v>
       </c>
       <c r="C41">
-        <v>-0.08070102392708101</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>-69.44232129812893</v>
+        <v>-69.36168466916568</v>
       </c>
       <c r="E41">
-        <v>69.28091925027478</v>
+        <v>69.36168466916568</v>
       </c>
       <c r="F41">
         <v>6.942484719083097</v>
@@ -1217,13 +1217,13 @@
         <v>2623</v>
       </c>
       <c r="C42">
-        <v>0.008604494733808386</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>-69.34031300555107</v>
+        <v>-69.34897053572165</v>
       </c>
       <c r="E42">
-        <v>69.35752199501867</v>
+        <v>69.34897053572165</v>
       </c>
       <c r="F42">
         <v>-32.59601280007871</v>
@@ -1237,13 +1237,13 @@
         <v>2624</v>
       </c>
       <c r="C43">
-        <v>-0.03793942849111906</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>-69.38486351798926</v>
+        <v>-69.3469713511968</v>
       </c>
       <c r="E43">
-        <v>69.30898466100703</v>
+        <v>69.3469713511968</v>
       </c>
       <c r="F43">
         <v>18.68807298968846</v>
@@ -1257,13 +1257,13 @@
         <v>2625</v>
       </c>
       <c r="C44">
-        <v>0.01831584830634539</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>-69.31909758584852</v>
+        <v>-69.3374468935356</v>
       </c>
       <c r="E44">
-        <v>69.35572928246121</v>
+        <v>69.3374468935356</v>
       </c>
       <c r="F44">
         <v>-17.90607896952139</v>
@@ -1277,13 +1277,13 @@
         <v>2626</v>
       </c>
       <c r="C45">
-        <v>-0.01572647912579155</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>-69.34332605267615</v>
+        <v>-69.32762646048667</v>
       </c>
       <c r="E45">
-        <v>69.31187309442457</v>
+        <v>69.32762646048667</v>
       </c>
       <c r="F45">
         <v>-2.346855155538208</v>
@@ -1297,13 +1297,13 @@
         <v>2627</v>
       </c>
       <c r="C46">
-        <v>-0.002082875599456742</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>-69.31654330742177</v>
+        <v>-69.31448809511504</v>
       </c>
       <c r="E46">
-        <v>69.31237755622286</v>
+        <v>69.31448809511504</v>
       </c>
       <c r="F46">
         <v>10.15084275247062</v>
@@ -1317,13 +1317,13 @@
         <v>2628</v>
       </c>
       <c r="C47">
-        <v>0.008967610590218363</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>-69.29339104469284</v>
+        <v>-69.30238586870597</v>
       </c>
       <c r="E47">
-        <v>69.31132626587328</v>
+        <v>69.30238586870597</v>
       </c>
       <c r="F47">
         <v>-2.338157123070062</v>
@@ -1337,13 +1337,13 @@
         <v>2629</v>
       </c>
       <c r="C48">
-        <v>-0.002052407643039801</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>-69.29128753214079</v>
+        <v>-69.28926189155911</v>
       </c>
       <c r="E48">
-        <v>69.28718271685472</v>
+        <v>69.28926189155911</v>
       </c>
       <c r="F48">
         <v>-5.465830473862354</v>
@@ -1357,13 +1357,13 @@
         <v>2630</v>
       </c>
       <c r="C49">
-        <v>-0.00480915340585611</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>-69.28118488950324</v>
+        <v>-69.27640273492393</v>
       </c>
       <c r="E49">
-        <v>69.27156658269152</v>
+        <v>69.27640273492393</v>
       </c>
       <c r="F49">
         <v>-24.37814239311109</v>
@@ -1377,13 +1377,13 @@
         <v>2631</v>
       </c>
       <c r="C50">
-        <v>-0.02243191843914737</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>-69.29190230281424</v>
+        <v>-69.26949990279897</v>
       </c>
       <c r="E50">
-        <v>69.24703846593593</v>
+        <v>69.26949990279897</v>
       </c>
       <c r="F50">
         <v>22.03128723757288</v>
@@ -1397,13 +1397,13 @@
         <v>2632</v>
       </c>
       <c r="C51">
-        <v>0.01670444718903489</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>-69.24472956147066</v>
+        <v>-69.26145402079646</v>
       </c>
       <c r="E51">
-        <v>69.27813845584872</v>
+        <v>69.26145402079646</v>
       </c>
       <c r="F51">
         <v>-7.84182704449421</v>
@@ -1417,13 +1417,13 @@
         <v>2633</v>
       </c>
       <c r="C52">
-        <v>-0.005538441912873464</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>-69.25446911856568</v>
+        <v>-69.2489480183219</v>
       </c>
       <c r="E52">
-        <v>69.24339223473993</v>
+        <v>69.2489480183219</v>
       </c>
       <c r="F52">
         <v>13.31375327358444</v>
@@ -1437,13 +1437,13 @@
         <v>2634</v>
       </c>
       <c r="C53">
-        <v>0.008975187596025882</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>-69.22867749844936</v>
+        <v>-69.2376685058167</v>
       </c>
       <c r="E53">
-        <v>69.2466278736414</v>
+        <v>69.2376685058167</v>
       </c>
       <c r="F53">
         <v>17.1053883990183</v>
@@ -1457,13 +1457,13 @@
         <v>2635</v>
       </c>
       <c r="C54">
-        <v>0.01270110889054666</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>-69.21488990355928</v>
+        <v>-69.2276102243715</v>
       </c>
       <c r="E54">
-        <v>69.24029212134039</v>
+        <v>69.2276102243715</v>
       </c>
       <c r="F54">
         <v>59.55091838565778</v>
@@ -1477,13 +1477,13 @@
         <v>2636</v>
       </c>
       <c r="C55">
-        <v>0.06251879588791542</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>-69.18924558066438</v>
+        <v>-69.25180277781982</v>
       </c>
       <c r="E55">
-        <v>69.3142831724402</v>
+        <v>69.25180277781982</v>
       </c>
       <c r="F55">
         <v>-3.01332809967505</v>
@@ -1497,13 +1497,13 @@
         <v>2637</v>
       </c>
       <c r="C56">
-        <v>-0.00302663198823458</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>-69.24175840072391</v>
+        <v>-69.23876626436321</v>
       </c>
       <c r="E56">
-        <v>69.23570513674744</v>
+        <v>69.23876626436321</v>
       </c>
       <c r="F56">
         <v>-5.283698629256151</v>
@@ -1517,13 +1517,13 @@
         <v>2638</v>
       </c>
       <c r="C57">
-        <v>-0.005280427753343619</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>-69.23118091772189</v>
+        <v>-69.22593531602195</v>
       </c>
       <c r="E57">
-        <v>69.22062006221519</v>
+        <v>69.22593531602195</v>
       </c>
       <c r="F57">
         <v>31.50565725296701</v>
@@ -1537,13 +1537,13 @@
         <v>2639</v>
       </c>
       <c r="C58">
-        <v>0.02991529900746869</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>-69.19330902798487</v>
+        <v>-69.22325573053106</v>
       </c>
       <c r="E58">
-        <v>69.25313962599981</v>
+        <v>69.22325573053106</v>
       </c>
       <c r="F58">
         <v>-8.953760729151838</v>
@@ -1557,13 +1557,13 @@
         <v>2640</v>
       </c>
       <c r="C59">
-        <v>-0.00774849662785855</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>-69.21870929455088</v>
+        <v>-69.21098680866383</v>
       </c>
       <c r="E59">
-        <v>69.20321230129517</v>
+        <v>69.21098680866383</v>
       </c>
       <c r="F59">
         <v>-38.48285594207255</v>
@@ -1577,13 +1577,13 @@
         <v>2641</v>
       </c>
       <c r="C60">
-        <v>-0.0372591079595788</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>-69.25067233355607</v>
+        <v>-69.2134458693515</v>
       </c>
       <c r="E60">
-        <v>69.1761541176369</v>
+        <v>69.2134458693515</v>
       </c>
       <c r="F60">
         <v>13.66246093222401</v>
@@ -1597,13 +1597,13 @@
         <v>2642</v>
       </c>
       <c r="C61">
-        <v>0.01107070965789737</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>-69.19121349749794</v>
+        <v>-69.20230701429956</v>
       </c>
       <c r="E61">
-        <v>69.21335491681374</v>
+        <v>69.20230701429956</v>
       </c>
       <c r="F61">
         <v>22.57601303729615</v>
@@ -1617,13 +1617,13 @@
         <v>2643</v>
       </c>
       <c r="C62">
-        <v>0.02037086157117981</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>-69.17416827523377</v>
+        <v>-69.19456748828733</v>
       </c>
       <c r="E62">
-        <v>69.21490999837613</v>
+        <v>69.19456748828733</v>
       </c>
       <c r="F62">
         <v>-25.60447682907636</v>
@@ -1637,13 +1637,13 @@
         <v>2644</v>
       </c>
       <c r="C63">
-        <v>-0.01865147154664865</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>-69.20699807385176</v>
+        <v>-69.18836504808195</v>
       </c>
       <c r="E63">
-        <v>69.16969513075847</v>
+        <v>69.18836504808195</v>
       </c>
       <c r="F63">
         <v>30.09085875320636</v>
@@ -1657,13 +1657,13 @@
         <v>2645</v>
       </c>
       <c r="C64">
-        <v>0.01492162322157736</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>-69.16985940234673</v>
+        <v>-69.18478956635163</v>
       </c>
       <c r="E64">
-        <v>69.19970264878989</v>
+        <v>69.18478956635163</v>
       </c>
       <c r="F64">
         <v>42.15237599583759</v>
@@ -1677,13 +1677,13 @@
         <v>2646</v>
       </c>
       <c r="C65">
-        <v>0.03699920762199232</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>-69.15333328289738</v>
+        <v>-69.19035930410978</v>
       </c>
       <c r="E65">
-        <v>69.22733169814136</v>
+        <v>69.19035930410978</v>
       </c>
       <c r="F65">
         <v>-18.38453982928172</v>
@@ -1697,13 +1697,13 @@
         <v>2647</v>
       </c>
       <c r="C66">
-        <v>-0.01185189268418794</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>-69.19267130283419</v>
+        <v>-69.18083383859808</v>
       </c>
       <c r="E66">
-        <v>69.1689675174658</v>
+        <v>69.18083383859808</v>
       </c>
       <c r="F66">
         <v>-30.50098741628062</v>
@@ -1717,13 +1717,13 @@
         <v>2648</v>
       </c>
       <c r="C67">
-        <v>-0.02480298428217809</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>-69.20230542623857</v>
+        <v>-69.17752543925661</v>
       </c>
       <c r="E67">
-        <v>69.15269945767422</v>
+        <v>69.17752543925661</v>
       </c>
       <c r="F67">
         <v>-42.38477545873423</v>
@@ -1737,13 +1737,13 @@
         <v>2649</v>
       </c>
       <c r="C68">
-        <v>-0.05094454249608513</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>-69.23419236807167</v>
+        <v>-69.18329810812152</v>
       </c>
       <c r="E68">
-        <v>69.13230328307951</v>
+        <v>69.18329810812152</v>
       </c>
       <c r="F68">
         <v>-18.42902524021213</v>
@@ -1757,13 +1757,13 @@
         <v>2650</v>
       </c>
       <c r="C69">
-        <v>-0.0264355469259866</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>-69.20016599629169</v>
+        <v>-69.17380228086584</v>
       </c>
       <c r="E69">
-        <v>69.14729490243973</v>
+        <v>69.17380228086584</v>
       </c>
       <c r="F69">
         <v>29.10532814066045</v>
@@ -1777,13 +1777,13 @@
         <v>2651</v>
       </c>
       <c r="C70">
-        <v>0.03714283449586262</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>-69.13242910700862</v>
+        <v>-69.16962852550955</v>
       </c>
       <c r="E70">
-        <v>69.20671477600035</v>
+        <v>69.16962852550955</v>
       </c>
       <c r="F70">
         <v>-18.3354805056112</v>
@@ -1797,13 +1797,13 @@
         <v>2652</v>
       </c>
       <c r="C71">
-        <v>-0.02045316400867754</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>-69.18051709368468</v>
+        <v>-69.16010712376332</v>
       </c>
       <c r="E71">
-        <v>69.13961076566734</v>
+        <v>69.16010712376332</v>
       </c>
       <c r="F71">
         <v>20.61624301866374</v>
@@ -1817,13 +1817,13 @@
         <v>2653</v>
       </c>
       <c r="C72">
-        <v>0.02063464318031446</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>-69.13085229493323</v>
+        <v>-69.15152173996559</v>
       </c>
       <c r="E72">
-        <v>69.17212158129387</v>
+        <v>69.15152173996559</v>
       </c>
       <c r="F72">
         <v>-27.533391346158</v>
@@ -1837,13 +1837,13 @@
         <v>2654</v>
       </c>
       <c r="C73">
-        <v>-0.02284376575706153</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>-69.16924773580131</v>
+        <v>-69.14642788252631</v>
       </c>
       <c r="E73">
-        <v>69.12356020428719</v>
+        <v>69.14642788252631</v>
       </c>
       <c r="F73">
         <v>2.308240984562815</v>
@@ -1857,13 +1857,13 @@
         <v>2655</v>
       </c>
       <c r="C74">
-        <v>0.001878824400495198</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>-69.1315588495092</v>
+        <v>-69.13346048599442</v>
       </c>
       <c r="E74">
-        <v>69.13531649831019</v>
+        <v>69.13346048599442</v>
       </c>
       <c r="F74">
         <v>-5.389836318471453</v>
@@ -1877,13 +1877,13 @@
         <v>2656</v>
       </c>
       <c r="C75">
-        <v>-0.004346744903351954</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>-69.12507277411309</v>
+        <v>-69.12074862549967</v>
       </c>
       <c r="E75">
-        <v>69.11637928430638</v>
+        <v>69.12074862549967</v>
       </c>
       <c r="F75">
         <v>8.46356137112565</v>
@@ -1897,13 +1897,13 @@
         <v>2657</v>
       </c>
       <c r="C76">
-        <v>0.006709957426149686</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>-69.10175764443106</v>
+        <v>-69.10848943049251</v>
       </c>
       <c r="E76">
-        <v>69.11517755928337</v>
+        <v>69.10848943049251</v>
       </c>
       <c r="F76">
         <v>-23.16305498601707</v>
@@ -1917,13 +1917,13 @@
         <v>2658</v>
       </c>
       <c r="C77">
-        <v>-0.01699509458905217</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>-69.11807566211645</v>
+        <v>-69.10109926087623</v>
       </c>
       <c r="E77">
-        <v>69.08408547293836</v>
+        <v>69.10109926087623</v>
       </c>
       <c r="F77">
         <v>32.3574148814572</v>
@@ -1937,13 +1937,13 @@
         <v>2659</v>
       </c>
       <c r="C78">
-        <v>0.01644757095646054</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>-69.08259415760028</v>
+        <v>-69.0990506874133</v>
       </c>
       <c r="E78">
-        <v>69.1154892995132</v>
+        <v>69.0990506874133</v>
       </c>
       <c r="F78">
         <v>-9.19435989544013</v>
@@ -1957,13 +1957,13 @@
         <v>2660</v>
       </c>
       <c r="C79">
-        <v>-0.004057189671369618</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>-69.09099564220219</v>
+        <v>-69.08694451209388</v>
       </c>
       <c r="E79">
-        <v>69.08288126285944</v>
+        <v>69.08694451209388</v>
       </c>
       <c r="F79">
         <v>52.3283240540465</v>
@@ -1977,13 +1977,13 @@
         <v>2661</v>
       </c>
       <c r="C80">
-        <v>0.01500318636059011</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>-69.08756538816488</v>
+        <v>-69.10257116491874</v>
       </c>
       <c r="E80">
-        <v>69.11757176088605</v>
+        <v>69.10257116491874</v>
       </c>
       <c r="F80">
         <v>14.92824815368436</v>
@@ -1997,13 +1997,13 @@
         <v>2662</v>
       </c>
       <c r="C81">
-        <v>0.007579228763704371</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>-69.08432971371084</v>
+        <v>-69.09191790402505</v>
       </c>
       <c r="E81">
-        <v>69.09948817123825</v>
+        <v>69.09191790402505</v>
       </c>
       <c r="F81">
         <v>58.68118041282031</v>
@@ -2017,13 +2017,13 @@
         <v>2663</v>
       </c>
       <c r="C82">
-        <v>0.0451927239158437</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>-69.06967671990724</v>
+        <v>-69.11489006626056</v>
       </c>
       <c r="E82">
-        <v>69.16006216773893</v>
+        <v>69.11489006626056</v>
       </c>
       <c r="F82">
         <v>-37.22077990191224</v>
@@ -2037,13 +2037,13 @@
         <v>2664</v>
       </c>
       <c r="C83">
-        <v>-0.004325368917746269</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>-69.12069559082792</v>
+        <v>-69.11637067841876</v>
       </c>
       <c r="E83">
-        <v>69.11204485299243</v>
+        <v>69.11637067841876</v>
       </c>
       <c r="F83">
         <v>-35.63972562211291</v>
@@ -2057,13 +2057,13 @@
         <v>2665</v>
       </c>
       <c r="C84">
-        <v>-0.01827577164061261</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>-69.13491552919326</v>
+        <v>-69.11664888655089</v>
       </c>
       <c r="E84">
-        <v>69.09836398591203</v>
+        <v>69.11664888655089</v>
       </c>
       <c r="F84">
         <v>29.00287567392894</v>
@@ -2077,13 +2077,13 @@
         <v>2666</v>
       </c>
       <c r="C85">
-        <v>0.007235794848717377</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>-69.10521742065143</v>
+        <v>-69.11245456911766</v>
       </c>
       <c r="E85">
-        <v>69.11968901034885</v>
+        <v>69.11245456911766</v>
       </c>
       <c r="F85">
         <v>-5.176430001216659</v>
@@ -2097,13 +2097,13 @@
         <v>2667</v>
       </c>
       <c r="C86">
-        <v>-0.001032499623860003</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>-69.10080736682049</v>
+        <v>-69.09977567143341</v>
       </c>
       <c r="E86">
-        <v>69.09874236757277</v>
+        <v>69.09977567143341</v>
       </c>
       <c r="F86">
         <v>-19.3384751419245</v>
@@ -2117,13 +2117,13 @@
         <v>2668</v>
       </c>
       <c r="C87">
-        <v>-0.004518450626547714</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>-69.09523904962265</v>
+        <v>-69.09072175061631</v>
       </c>
       <c r="E87">
-        <v>69.08620214836955</v>
+        <v>69.09072175061631</v>
       </c>
       <c r="F87">
         <v>-12.74076796320855</v>
@@ -2137,13 +2137,13 @@
         <v>2669</v>
       </c>
       <c r="C88">
-        <v>-0.003487774611881199</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>-69.08295390657302</v>
+        <v>-69.07946849903118</v>
       </c>
       <c r="E88">
-        <v>69.07597835734926</v>
+        <v>69.07946849903118</v>
       </c>
       <c r="F88">
         <v>-17.36081754718271</v>
@@ -2157,13 +2157,13 @@
         <v>2670</v>
       </c>
       <c r="C89">
-        <v>-0.00597817932012187</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>-69.07564482509657</v>
+        <v>-69.06967036398102</v>
       </c>
       <c r="E89">
-        <v>69.06368846645633</v>
+        <v>69.06967036398102</v>
       </c>
       <c r="F89">
         <v>18.11240611819471</v>
@@ -2177,13 +2177,13 @@
         <v>2671</v>
       </c>
       <c r="C90">
-        <v>0.00517146275057683</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>-69.05498253981592</v>
+        <v>-69.0601558044722</v>
       </c>
       <c r="E90">
-        <v>69.06532546531709</v>
+        <v>69.0601558044722</v>
       </c>
       <c r="F90">
         <v>6.003097119057088</v>
@@ -2197,13 +2197,13 @@
         <v>2672</v>
       </c>
       <c r="C91">
-        <v>0.001672056779109963</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>-69.04593234342573</v>
+        <v>-69.04760684982868</v>
       </c>
       <c r="E91">
-        <v>69.04927645698396</v>
+        <v>69.04760684982868</v>
       </c>
       <c r="F91">
         <v>-53.88400854703264</v>
@@ -2217,13 +2217,13 @@
         <v>2673</v>
       </c>
       <c r="C92">
-        <v>-0.01143027369447694</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>-69.07633548413487</v>
+        <v>-69.06490614048333</v>
       </c>
       <c r="E92">
-        <v>69.05347493674593</v>
+        <v>69.06490614048333</v>
       </c>
       <c r="F92">
         <v>-19.30602329841662</v>
@@ -2237,13 +2237,13 @@
         <v>2674</v>
       </c>
       <c r="C93">
-        <v>-0.009277287803276843</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>-69.06513725062662</v>
+        <v>-69.05586797507934</v>
       </c>
       <c r="E93">
-        <v>69.04658267502008</v>
+        <v>69.05586797507934</v>
       </c>
       <c r="F93">
         <v>15.45895427039596</v>
@@ -2257,13 +2257,13 @@
         <v>2675</v>
       </c>
       <c r="C94">
-        <v>0.006369908990282853</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>-69.03906929869751</v>
+        <v>-69.04544450149278</v>
       </c>
       <c r="E94">
-        <v>69.05180911667807</v>
+        <v>69.04544450149278</v>
       </c>
       <c r="F94">
         <v>31.34055235855726</v>
@@ -2277,13 +2277,13 @@
         <v>2676</v>
       </c>
       <c r="C95">
-        <v>0.01681706335533045</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>-69.02592768372875</v>
+        <v>-69.04275472294466</v>
       </c>
       <c r="E95">
-        <v>69.05956181043942</v>
+        <v>69.04275472294466</v>
       </c>
       <c r="F95">
         <v>55.41382499924055</v>
@@ -2297,13 +2297,13 @@
         <v>2677</v>
       </c>
       <c r="C96">
-        <v>0.05849393259165851</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>-69.00323578818302</v>
+        <v>-69.06176840423274</v>
       </c>
       <c r="E96">
-        <v>69.12022365336634</v>
+        <v>69.06176840423274</v>
       </c>
       <c r="F96">
         <v>8.114537581720072</v>
@@ -2317,13 +2317,13 @@
         <v>2678</v>
       </c>
       <c r="C97">
-        <v>0.009611634611915724</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>-69.03989614110546</v>
+        <v>-69.04955689464427</v>
       </c>
       <c r="E97">
-        <v>69.05911941032929</v>
+        <v>69.04955689464427</v>
       </c>
       <c r="F97">
         <v>34.32502203764329</v>
@@ -2337,13 +2337,13 @@
         <v>2679</v>
       </c>
       <c r="C98">
-        <v>0.04364772205231592</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>-69.00519984047844</v>
+        <v>-69.04890375107782</v>
       </c>
       <c r="E98">
-        <v>69.09249528458307</v>
+        <v>69.04890375107782</v>
       </c>
       <c r="F98">
         <v>10.11789389928026</v>
@@ -2357,13 +2357,13 @@
         <v>2680</v>
       </c>
       <c r="C99">
-        <v>0.01388037943474243</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>-69.02313700616227</v>
+        <v>-69.03708308354459</v>
       </c>
       <c r="E99">
-        <v>69.05089776503175</v>
+        <v>69.03708308354459</v>
       </c>
       <c r="F99">
         <v>27.22202351195904</v>
@@ -2377,13 +2377,13 @@
         <v>2681</v>
       </c>
       <c r="C100">
-        <v>0.03964804855976357</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>-68.99217614640658</v>
+        <v>-69.0318979477703</v>
       </c>
       <c r="E100">
-        <v>69.07147224352612</v>
+        <v>69.0318979477703</v>
       </c>
       <c r="F100">
         <v>-15.00055920035948</v>
@@ -2397,13 +2397,13 @@
         <v>2682</v>
       </c>
       <c r="C101">
-        <v>-0.02004517369051766</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>-69.04134541120793</v>
+        <v>-69.02136213328691</v>
       </c>
       <c r="E101">
-        <v>69.00125506382689</v>
+        <v>69.02136213328691</v>
       </c>
       <c r="F101">
         <v>-39.0672031687572</v>
@@ -2417,13 +2417,13 @@
         <v>2683</v>
       </c>
       <c r="C102">
-        <v>-0.05897566355194572</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>-69.0832266224746</v>
+        <v>-69.02433013834359</v>
       </c>
       <c r="E102">
-        <v>68.9652752953707</v>
+        <v>69.02433013834359</v>
       </c>
       <c r="F102">
         <v>-46.50851728020768</v>
@@ -2437,13 +2437,13 @@
         <v>2684</v>
       </c>
       <c r="C103">
-        <v>-0.09532077794292332</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>-69.12907216352586</v>
+        <v>-69.0338975411569</v>
       </c>
       <c r="E103">
-        <v>68.93843060764003</v>
+        <v>69.0338975411569</v>
       </c>
       <c r="F103">
         <v>-9.725672329713575</v>
@@ -2457,13 +2457,13 @@
         <v>2685</v>
       </c>
       <c r="C104">
-        <v>-0.02113696887673542</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>-69.04299234414282</v>
+        <v>-69.02202124525378</v>
       </c>
       <c r="E104">
-        <v>69.00071840638935</v>
+        <v>69.02202124525378</v>
       </c>
       <c r="F104">
         <v>92.43208249031198</v>
@@ -2477,13 +2477,13 @@
         <v>2686</v>
       </c>
       <c r="C105">
-        <v>0.1773887005749831</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>-68.92013348850784</v>
+        <v>-69.0976498126568</v>
       </c>
       <c r="E105">
-        <v>69.2749108896578</v>
+        <v>69.0976498126568</v>
       </c>
       <c r="F105">
         <v>-2.154532334131432</v>
@@ -2497,13 +2497,13 @@
         <v>2687</v>
       </c>
       <c r="C106">
-        <v>-0.004153774999377909</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>-69.08887314809353</v>
+        <v>-69.0848388800889</v>
       </c>
       <c r="E106">
-        <v>69.08056559809476</v>
+        <v>69.0848388800889</v>
       </c>
       <c r="F106">
         <v>-17.31551558838191</v>
@@ -2517,13 +2517,13 @@
         <v>2688</v>
       </c>
       <c r="C107">
-        <v>-0.03231915192623601</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>-69.10728704922639</v>
+        <v>-69.07508886967959</v>
       </c>
       <c r="E107">
-        <v>69.04264874537392</v>
+        <v>69.07508886967959</v>
       </c>
       <c r="F107">
         <v>-22.57733215654554</v>
@@ -2537,13 +2537,13 @@
         <v>2689</v>
       </c>
       <c r="C108">
-        <v>-0.04473699565564007</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>-69.11211621373623</v>
+        <v>-69.06751571244492</v>
       </c>
       <c r="E108">
-        <v>69.02264222242495</v>
+        <v>69.06751571244492</v>
       </c>
       <c r="F108">
         <v>-5.131592792605488</v>
@@ -2557,13 +2557,13 @@
         <v>2690</v>
       </c>
       <c r="C109">
-        <v>-0.01030567209962023</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>-69.06511342180927</v>
+        <v>-69.05494898630627</v>
       </c>
       <c r="E109">
-        <v>69.04450207761003</v>
+        <v>69.05494898630627</v>
       </c>
       <c r="F109">
         <v>17.54249770517049</v>
@@ -2577,13 +2577,13 @@
         <v>2691</v>
       </c>
       <c r="C110">
-        <v>0.03492941258326238</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>-69.0102316354383</v>
+        <v>-69.04529853685871</v>
       </c>
       <c r="E110">
-        <v>69.08009046060484</v>
+        <v>69.04529853685871</v>
       </c>
       <c r="F110">
         <v>-24.15859479366276</v>
@@ -2597,13 +2597,13 @@
         <v>2692</v>
       </c>
       <c r="C111">
-        <v>-0.04506340472469963</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>-69.08344826904292</v>
+        <v>-69.03850541358879</v>
       </c>
       <c r="E111">
-        <v>68.99332145959352</v>
+        <v>69.03850541358879</v>
       </c>
       <c r="F111">
         <v>-5.898393081747599</v>
@@ -2617,13 +2617,13 @@
         <v>2693</v>
       </c>
       <c r="C112">
-        <v>-0.011200137217463</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>-69.03711966127284</v>
+        <v>-69.02604558482702</v>
       </c>
       <c r="E112">
-        <v>69.01471938683792</v>
+        <v>69.02604558482702</v>
       </c>
       <c r="F112">
         <v>2.213825070090536</v>
@@ -2637,13 +2637,13 @@
         <v>2694</v>
       </c>
       <c r="C113">
-        <v>0.004222033298230976</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>-69.00893640184594</v>
+        <v>-69.01328395925408</v>
       </c>
       <c r="E113">
-        <v>69.01738046844241</v>
+        <v>69.01328395925408</v>
       </c>
       <c r="F113">
         <v>-13.31784451695484</v>
@@ -2657,13 +2657,13 @@
         <v>2695</v>
       </c>
       <c r="C114">
-        <v>-0.02522165280826712</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>-69.02740817040844</v>
+        <v>-69.00231085590144</v>
       </c>
       <c r="E114">
-        <v>68.9769648647919</v>
+        <v>69.00231085590144</v>
       </c>
       <c r="F114">
         <v>12.58016022605091</v>
@@ -2677,13 +2677,13 @@
         <v>2696</v>
       </c>
       <c r="C115">
-        <v>0.02321421893077001</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>-68.96781480214844</v>
+        <v>-68.99114685947872</v>
       </c>
       <c r="E115">
-        <v>69.01424324000999</v>
+        <v>68.99114685947872</v>
       </c>
       <c r="F115">
         <v>-14.80797901359523</v>
@@ -2697,13 +2697,13 @@
         <v>2697</v>
       </c>
       <c r="C116">
-        <v>-0.02649449463475926</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>-69.00700298420517</v>
+        <v>-68.98061930505706</v>
       </c>
       <c r="E116">
-        <v>68.95401399493565</v>
+        <v>68.98061930505706</v>
       </c>
       <c r="F116">
         <v>-25.41414796087196</v>
@@ -2717,13 +2717,13 @@
         <v>2698</v>
       </c>
       <c r="C117">
-        <v>-0.04825951688067148</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>-69.02263576152617</v>
+        <v>-68.97450135890821</v>
       </c>
       <c r="E117">
-        <v>68.92611672776482</v>
+        <v>68.97450135890821</v>
       </c>
       <c r="F117">
         <v>11.99769321071074</v>
@@ -2737,13 +2737,13 @@
         <v>2699</v>
       </c>
       <c r="C118">
-        <v>0.02174406437251288</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>-68.9413503858005</v>
+        <v>-68.96320785031853</v>
       </c>
       <c r="E118">
-        <v>68.98483851454553</v>
+        <v>68.96320785031853</v>
       </c>
       <c r="F118">
         <v>73.48160925450316</v>
@@ -2757,13 +2757,13 @@
         <v>2700</v>
       </c>
       <c r="C119">
-        <v>0.1522616405534901</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>-68.8537136480619</v>
+        <v>-69.00612392374937</v>
       </c>
       <c r="E119">
-        <v>69.15823692916888</v>
+        <v>69.00612392374937</v>
       </c>
       <c r="F119">
         <v>-31.28496427669631</v>
@@ -2777,13 +2777,13 @@
         <v>2701</v>
       </c>
       <c r="C120">
-        <v>-0.04341755800896496</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>-69.04678726565898</v>
+        <v>-69.00343620846994</v>
       </c>
       <c r="E120">
-        <v>68.95995214964104</v>
+        <v>69.00343620846994</v>
       </c>
       <c r="F120">
         <v>-21.36323886089002</v>
@@ -2797,13 +2797,13 @@
         <v>2702</v>
       </c>
       <c r="C121">
-        <v>-0.03381344803379824</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>-69.02909503545166</v>
+        <v>-68.99536853927063</v>
       </c>
       <c r="E121">
-        <v>68.96146813938407</v>
+        <v>68.99536853927063</v>
       </c>
       <c r="F121">
         <v>35.97187474306338</v>
@@ -2817,13 +2817,13 @@
         <v>2703</v>
       </c>
       <c r="C122">
-        <v>0.04880589088383116</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>-68.94706355596306</v>
+        <v>-68.99593310178487</v>
       </c>
       <c r="E122">
-        <v>69.04467533773071</v>
+        <v>68.99593310178487</v>
       </c>
       <c r="F122">
         <v>3.636469097733652</v>
@@ -2837,13 +2837,13 @@
         <v>2704</v>
       </c>
       <c r="C123">
-        <v>0.005036927726653843</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>-68.97820571860989</v>
+        <v>-68.98330997148793</v>
       </c>
       <c r="E123">
-        <v>68.98827957406318</v>
+        <v>68.98330997148793</v>
       </c>
       <c r="F123">
         <v>8.702147345947253</v>
@@ -2857,13 +2857,13 @@
         <v>2705</v>
       </c>
       <c r="C124">
-        <v>0.01221374100167476</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>-68.95905541391249</v>
+        <v>-68.97133737221715</v>
       </c>
       <c r="E124">
-        <v>68.98348289591584</v>
+        <v>68.97133737221715</v>
       </c>
       <c r="F124">
         <v>-20.36089171147069</v>
@@ -2877,13 +2877,13 @@
         <v>2706</v>
       </c>
       <c r="C125">
-        <v>-0.02752043606175171</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>-68.99031653652068</v>
+        <v>-68.96285927572522</v>
       </c>
       <c r="E125">
-        <v>68.93527566439718</v>
+        <v>68.96285927572522</v>
       </c>
       <c r="F125">
         <v>58.37389064427327</v>
@@ -2897,13 +2897,13 @@
         <v>2707</v>
       </c>
       <c r="C126">
-        <v>0.05824037907100745</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>-68.9269033279717</v>
+        <v>-68.98517811134306</v>
       </c>
       <c r="E126">
-        <v>69.04338408611372</v>
+        <v>68.98517811134306</v>
       </c>
       <c r="F126">
         <v>-41.6345520489628</v>
